--- a/Data/Records.xlsx
+++ b/Data/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\All-others\Random\Fantasy Football\fsmyFF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F247ECF-2F99-42EE-ABE7-BED479F3B0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E852DA33-D8AE-4599-9D3D-CF1A8458F7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,29 +18,20 @@
     <sheet name="Losses" sheetId="3" r:id="rId3"/>
     <sheet name="PWins" sheetId="4" r:id="rId4"/>
     <sheet name="PLosses" sheetId="5" r:id="rId5"/>
+    <sheet name="RegFin" sheetId="6" r:id="rId6"/>
+    <sheet name="OFin" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
   <si>
     <t>Team</t>
   </si>
@@ -94,12 +85,30 @@
   </si>
   <si>
     <t>OLosses</t>
+  </si>
+  <si>
+    <t>RegFin</t>
+  </si>
+  <si>
+    <t>Ofin</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>PWL</t>
+  </si>
+  <si>
+    <t>OWL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,12 +146,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,19 +434,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +475,23 @@
       <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -501,8 +527,28 @@
         <f>C2/(C2+D2)</f>
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="3">
+        <f>AVERAGE(RegFin!2:2)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="K2" s="3">
+        <f>AVERAGE(OFin!2:2)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="L2" t="str">
+        <f>_xlfn.CONCAT(C2,"-",D2)</f>
+        <v>19-21</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xlfn.CONCAT(E2,"-",F2)</f>
+        <v>0-1</v>
+      </c>
+      <c r="N2" t="str">
+        <f>_xlfn.CONCAT(G2,"-",H2)</f>
+        <v>19-22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -538,8 +584,28 @@
         <f t="shared" ref="I3:I10" si="2">C3/(C3+D3)</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="3">
+        <f>AVERAGE(RegFin!3:3)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K3" s="3">
+        <f>AVERAGE(OFin!3:3)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L10" si="3">_xlfn.CONCAT(C3,"-",D3)</f>
+        <v>24-16</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M10" si="4">_xlfn.CONCAT(E3,"-",F3)</f>
+        <v>2-1</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N10" si="5">_xlfn.CONCAT(G3,"-",H3)</f>
+        <v>26-17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -575,8 +641,28 @@
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="3">
+        <f>AVERAGE(RegFin!4:4)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="K4" s="3">
+        <f>AVERAGE(OFin!4:4)</f>
+        <v>3</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="3"/>
+        <v>25-15</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="4"/>
+        <v>1-3</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="5"/>
+        <v>26-18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -612,8 +698,28 @@
         <f t="shared" si="2"/>
         <v>0.52500000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="3">
+        <f>AVERAGE(RegFin!5:5)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
+        <f>AVERAGE(OFin!5:5)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v>21-19</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="4"/>
+        <v>0-1</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="5"/>
+        <v>21-20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -649,8 +755,28 @@
         <f t="shared" si="2"/>
         <v>0.42499999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="3">
+        <f>AVERAGE(RegFin!6:6)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="K6" s="3">
+        <f>AVERAGE(OFin!6:6)</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="3"/>
+        <v>17-23</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="4"/>
+        <v>0-0</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="5"/>
+        <v>17-23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -686,8 +812,28 @@
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="3">
+        <f>AVERAGE(RegFin!7:7)</f>
+        <v>7</v>
+      </c>
+      <c r="K7" s="3">
+        <f>AVERAGE(OFin!7:7)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>14-26</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="4"/>
+        <v>0-0</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="5"/>
+        <v>14-26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -723,8 +869,28 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="3">
+        <f>AVERAGE(RegFin!8:8)</f>
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <f>AVERAGE(OFin!8:8)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v>7-7</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="4"/>
+        <v>2-0</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="5"/>
+        <v>9-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -760,8 +926,28 @@
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="3">
+        <f>AVERAGE(RegFin!9:9)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="K9" s="3">
+        <f>AVERAGE(OFin!9:9)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v>18-22</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="4"/>
+        <v>2-2</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="5"/>
+        <v>20-24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -797,9 +983,32 @@
         <f t="shared" si="2"/>
         <v>0.57692307692307687</v>
       </c>
+      <c r="J10" s="3">
+        <f>AVERAGE(RegFin!10:10)</f>
+        <v>3.5</v>
+      </c>
+      <c r="K10" s="3">
+        <f>AVERAGE(OFin!10:10)</f>
+        <v>2.5</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v>15-11</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="4"/>
+        <v>2-1</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="5"/>
+        <v>17-12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="M2" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1198,7 +1407,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,4 +1501,296 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8002BE8F-0246-41F3-B4D0-E58EBC9171D4}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547EDEE1-53B1-4442-B8FD-2AD657DCF81D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>